--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="H2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="I2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="J2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.847907</v>
+        <v>2.63379</v>
       </c>
       <c r="N2">
-        <v>32.54372100000001</v>
+        <v>7.90137</v>
       </c>
       <c r="O2">
-        <v>0.1203140543159393</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="P2">
-        <v>0.1203140543159394</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="Q2">
-        <v>145.809636073983</v>
+        <v>23.23173274006</v>
       </c>
       <c r="R2">
-        <v>1312.286724665847</v>
+        <v>209.08559466054</v>
       </c>
       <c r="S2">
-        <v>0.01079587891189046</v>
+        <v>0.00212963338825028</v>
       </c>
       <c r="T2">
-        <v>0.01079587891189046</v>
+        <v>0.00212963338825028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="H3">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="I3">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="J3">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>196.650833</v>
       </c>
       <c r="O3">
-        <v>0.7270176327666009</v>
+        <v>0.8262122860897556</v>
       </c>
       <c r="P3">
-        <v>0.7270176327666011</v>
+        <v>0.8262122860897555</v>
       </c>
       <c r="Q3">
-        <v>881.0789151423591</v>
+        <v>578.195881899743</v>
       </c>
       <c r="R3">
-        <v>7929.710236281232</v>
+        <v>5203.762937097687</v>
       </c>
       <c r="S3">
-        <v>0.06523588931303805</v>
+        <v>0.05300272987899948</v>
       </c>
       <c r="T3">
-        <v>0.06523588931303807</v>
+        <v>0.05300272987899947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="H4">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="I4">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="J4">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.34022966666667</v>
+        <v>10.26216366666667</v>
       </c>
       <c r="N4">
-        <v>40.020689</v>
+        <v>30.786491</v>
       </c>
       <c r="O4">
-        <v>0.1479563861215291</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="P4">
-        <v>0.1479563861215292</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="Q4">
-        <v>179.309615471447</v>
+        <v>90.51892658061357</v>
       </c>
       <c r="R4">
-        <v>1613.786539243023</v>
+        <v>814.6703392255221</v>
       </c>
       <c r="S4">
-        <v>0.01327624804841543</v>
+        <v>0.008297793818118473</v>
       </c>
       <c r="T4">
-        <v>0.01327624804841544</v>
+        <v>0.008297793818118473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="H5">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="I5">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="J5">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4248426666666667</v>
+        <v>0.8920680000000001</v>
       </c>
       <c r="N5">
-        <v>1.274528</v>
+        <v>2.676204</v>
       </c>
       <c r="O5">
-        <v>0.004711926795930482</v>
+        <v>0.01124385079458346</v>
       </c>
       <c r="P5">
-        <v>0.004711926795930484</v>
+        <v>0.01124385079458345</v>
       </c>
       <c r="Q5">
-        <v>5.710424565344001</v>
+        <v>7.868617225352001</v>
       </c>
       <c r="R5">
-        <v>51.393821088096</v>
+        <v>70.817555028168</v>
       </c>
       <c r="S5">
-        <v>0.0004228050614683527</v>
+        <v>0.0007213095187504136</v>
       </c>
       <c r="T5">
-        <v>0.0004228050614683529</v>
+        <v>0.0007213095187504133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>164.134605</v>
       </c>
       <c r="I6">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="J6">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.847907</v>
+        <v>2.63379</v>
       </c>
       <c r="N6">
-        <v>32.54372100000001</v>
+        <v>7.90137</v>
       </c>
       <c r="O6">
-        <v>0.1203140543159393</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="P6">
-        <v>0.1203140543159394</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="Q6">
-        <v>593.5056435072451</v>
+        <v>144.09869376765</v>
       </c>
       <c r="R6">
-        <v>5341.550791565206</v>
+        <v>1296.88824390885</v>
       </c>
       <c r="S6">
-        <v>0.04394370107046117</v>
+        <v>0.01320940598294983</v>
       </c>
       <c r="T6">
-        <v>0.04394370107046119</v>
+        <v>0.01320940598294983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>164.134605</v>
       </c>
       <c r="I7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="J7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>196.650833</v>
       </c>
       <c r="O7">
-        <v>0.7270176327666009</v>
+        <v>0.8262122860897556</v>
       </c>
       <c r="P7">
-        <v>0.7270176327666011</v>
+        <v>0.8262122860897555</v>
       </c>
       <c r="Q7">
         <v>3586.356310819552</v>
@@ -883,10 +883,10 @@
         <v>32277.20679737597</v>
       </c>
       <c r="S7">
-        <v>0.2655371037813771</v>
+        <v>0.3287582647037499</v>
       </c>
       <c r="T7">
-        <v>0.2655371037813772</v>
+        <v>0.3287582647037499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>164.134605</v>
       </c>
       <c r="I8">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="J8">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.34022966666667</v>
+        <v>10.26216366666667</v>
       </c>
       <c r="N8">
-        <v>40.020689</v>
+        <v>30.786491</v>
       </c>
       <c r="O8">
-        <v>0.1479563861215291</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="P8">
-        <v>0.1479563861215292</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="Q8">
-        <v>729.8644423158717</v>
+        <v>561.4587266245617</v>
       </c>
       <c r="R8">
-        <v>6568.779980842845</v>
+        <v>5053.128539621055</v>
       </c>
       <c r="S8">
-        <v>0.05403983134104098</v>
+        <v>0.05146844894106099</v>
       </c>
       <c r="T8">
-        <v>0.054039831341041</v>
+        <v>0.051468448941061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>164.134605</v>
       </c>
       <c r="I9">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="J9">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4248426666666667</v>
+        <v>0.8920680000000001</v>
       </c>
       <c r="N9">
-        <v>1.274528</v>
+        <v>2.676204</v>
       </c>
       <c r="O9">
-        <v>0.004711926795930482</v>
+        <v>0.01124385079458346</v>
       </c>
       <c r="P9">
-        <v>0.004711926795930484</v>
+        <v>0.01124385079458345</v>
       </c>
       <c r="Q9">
-        <v>23.24379442682667</v>
+        <v>48.80640960438</v>
       </c>
       <c r="R9">
-        <v>209.19414984144</v>
+        <v>439.25768643942</v>
       </c>
       <c r="S9">
-        <v>0.001720991813994864</v>
+        <v>0.004474042492529052</v>
       </c>
       <c r="T9">
-        <v>0.001720991813994864</v>
+        <v>0.004474042492529052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="H10">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="I10">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="J10">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.847907</v>
+        <v>2.63379</v>
       </c>
       <c r="N10">
-        <v>32.54372100000001</v>
+        <v>7.90137</v>
       </c>
       <c r="O10">
-        <v>0.1203140543159393</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="P10">
-        <v>0.1203140543159394</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="Q10">
-        <v>194.888492660904</v>
+        <v>57.7015015057</v>
       </c>
       <c r="R10">
-        <v>1753.996433948136</v>
+        <v>519.3135135513</v>
       </c>
       <c r="S10">
-        <v>0.0144297223745927</v>
+        <v>0.005289448080935317</v>
       </c>
       <c r="T10">
-        <v>0.0144297223745927</v>
+        <v>0.005289448080935317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="H11">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="I11">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="J11">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>196.650833</v>
       </c>
       <c r="O11">
-        <v>0.7270176327666009</v>
+        <v>0.8262122860897556</v>
       </c>
       <c r="P11">
-        <v>0.7270176327666011</v>
+        <v>0.8262122860897555</v>
       </c>
       <c r="Q11">
-        <v>1177.646048031236</v>
+        <v>1436.086189666686</v>
       </c>
       <c r="R11">
-        <v>10598.81443228113</v>
+        <v>12924.77570700017</v>
       </c>
       <c r="S11">
-        <v>0.08719399127476517</v>
+        <v>0.1316448123839514</v>
       </c>
       <c r="T11">
-        <v>0.08719399127476521</v>
+        <v>0.1316448123839513</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="H12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="I12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="J12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.34022966666667</v>
+        <v>10.26216366666667</v>
       </c>
       <c r="N12">
-        <v>40.020689</v>
+        <v>30.786491</v>
       </c>
       <c r="O12">
-        <v>0.1479563861215291</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="P12">
-        <v>0.1479563861215292</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="Q12">
-        <v>239.6644118987138</v>
+        <v>224.8251577627323</v>
       </c>
       <c r="R12">
-        <v>2156.979707088424</v>
+        <v>2023.42641986459</v>
       </c>
       <c r="S12">
-        <v>0.01774497241756454</v>
+        <v>0.02060953299727546</v>
       </c>
       <c r="T12">
-        <v>0.01774497241756455</v>
+        <v>0.02060953299727546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="H13">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="I13">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="J13">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4248426666666667</v>
+        <v>0.8920680000000001</v>
       </c>
       <c r="N13">
-        <v>1.274528</v>
+        <v>2.676204</v>
       </c>
       <c r="O13">
-        <v>0.004711926795930482</v>
+        <v>0.01124385079458346</v>
       </c>
       <c r="P13">
-        <v>0.004711926795930484</v>
+        <v>0.01124385079458345</v>
       </c>
       <c r="Q13">
-        <v>7.632527355249777</v>
+        <v>19.54357144844</v>
       </c>
       <c r="R13">
-        <v>68.692746197248</v>
+        <v>175.89214303596</v>
       </c>
       <c r="S13">
-        <v>0.0005651193112995555</v>
+        <v>0.001791542746636523</v>
       </c>
       <c r="T13">
-        <v>0.0005651193112995558</v>
+        <v>0.001791542746636523</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="H14">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="I14">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="J14">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.847907</v>
+        <v>2.63379</v>
       </c>
       <c r="N14">
-        <v>32.54372100000001</v>
+        <v>7.90137</v>
       </c>
       <c r="O14">
-        <v>0.1203140543159393</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="P14">
-        <v>0.1203140543159394</v>
+        <v>0.03319695559561149</v>
       </c>
       <c r="Q14">
-        <v>690.7633673087702</v>
+        <v>137.10683466561</v>
       </c>
       <c r="R14">
-        <v>6216.870305778932</v>
+        <v>1233.96151199049</v>
       </c>
       <c r="S14">
-        <v>0.05114475195899501</v>
+        <v>0.01256846814347606</v>
       </c>
       <c r="T14">
-        <v>0.05114475195899504</v>
+        <v>0.01256846814347606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="H15">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="I15">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="J15">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>196.650833</v>
       </c>
       <c r="O15">
-        <v>0.7270176327666009</v>
+        <v>0.8262122860897556</v>
       </c>
       <c r="P15">
-        <v>0.7270176327666011</v>
+        <v>0.8262122860897555</v>
       </c>
       <c r="Q15">
-        <v>4174.052241510877</v>
+        <v>3412.341561904516</v>
       </c>
       <c r="R15">
-        <v>37566.4701735979</v>
+        <v>30711.07405714064</v>
       </c>
       <c r="S15">
-        <v>0.3090506483974205</v>
+        <v>0.3128064791230548</v>
       </c>
       <c r="T15">
-        <v>0.3090506483974207</v>
+        <v>0.3128064791230548</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="H16">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="I16">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="J16">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.34022966666667</v>
+        <v>10.26216366666667</v>
       </c>
       <c r="N16">
-        <v>40.020689</v>
+        <v>30.786491</v>
       </c>
       <c r="O16">
-        <v>0.1479563861215291</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="P16">
-        <v>0.1479563861215292</v>
+        <v>0.1293469075200494</v>
       </c>
       <c r="Q16">
-        <v>849.4672719095968</v>
+        <v>534.2160070305897</v>
       </c>
       <c r="R16">
-        <v>7645.205447186372</v>
+        <v>4807.944063275307</v>
       </c>
       <c r="S16">
-        <v>0.06289533431450817</v>
+        <v>0.04897113176359448</v>
       </c>
       <c r="T16">
-        <v>0.06289533431450821</v>
+        <v>0.04897113176359449</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="H17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="I17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="J17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4248426666666667</v>
+        <v>0.8920680000000001</v>
       </c>
       <c r="N17">
-        <v>1.274528</v>
+        <v>2.676204</v>
       </c>
       <c r="O17">
-        <v>0.004711926795930482</v>
+        <v>0.01124385079458346</v>
       </c>
       <c r="P17">
-        <v>0.004711926795930484</v>
+        <v>0.01124385079458345</v>
       </c>
       <c r="Q17">
-        <v>27.05275321802667</v>
+        <v>46.438258094412</v>
       </c>
       <c r="R17">
-        <v>243.4747789622401</v>
+        <v>417.944322849708</v>
       </c>
       <c r="S17">
-        <v>0.00200301060916771</v>
+        <v>0.004256956036667467</v>
       </c>
       <c r="T17">
-        <v>0.002003010609167711</v>
+        <v>0.004256956036667467</v>
       </c>
     </row>
   </sheetData>
